--- a/Reembolso_Joao.xlsx
+++ b/Reembolso_Joao.xlsx
@@ -1713,7 +1713,7 @@
       <c r="R11" s="108" t="n"/>
       <c r="S11" s="57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="T11" s="109" t="n"/>
@@ -1823,13 +1823,13 @@
     <row r="15" ht="25" customHeight="1">
       <c r="B15" s="113" t="inlineStr">
         <is>
-          <t>21/10/2025</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C15" s="110" t="n"/>
       <c r="D15" s="39" t="inlineStr">
         <is>
-          <t>avcs</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E15" s="109" t="n"/>
@@ -1837,7 +1837,7 @@
       <c r="G15" s="110" t="n"/>
       <c r="H15" s="39" t="inlineStr">
         <is>
-          <t>avsc</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I15" s="109" t="n"/>
@@ -1845,7 +1845,7 @@
       <c r="K15" s="110" t="n"/>
       <c r="L15" s="39" t="inlineStr">
         <is>
-          <t>avsc</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M15" s="109" t="n"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="T15" s="40" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="U15" s="110" t="n"/>
@@ -1875,25 +1875,49 @@
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
-      <c r="B16" s="113" t="n"/>
+      <c r="B16" s="113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="C16" s="110" t="n"/>
-      <c r="D16" s="39" t="n"/>
+      <c r="D16" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="E16" s="109" t="n"/>
       <c r="F16" s="109" t="n"/>
       <c r="G16" s="110" t="n"/>
-      <c r="H16" s="39" t="n"/>
+      <c r="H16" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I16" s="109" t="n"/>
       <c r="J16" s="109" t="n"/>
       <c r="K16" s="110" t="n"/>
-      <c r="L16" s="39" t="n"/>
+      <c r="L16" s="39" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="M16" s="109" t="n"/>
       <c r="N16" s="109" t="n"/>
       <c r="O16" s="109" t="n"/>
       <c r="P16" s="109" t="n"/>
       <c r="Q16" s="109" t="n"/>
       <c r="R16" s="110" t="n"/>
-      <c r="S16" s="24" t="n"/>
-      <c r="T16" s="40" t="n"/>
+      <c r="S16" s="24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T16" s="40" t="inlineStr">
+        <is>
+          <t>12311</t>
+        </is>
+      </c>
       <c r="U16" s="110" t="n"/>
       <c r="X16" s="2">
         <f>IF(T16&gt;0,L16,"X")</f>
@@ -2539,13 +2563,13 @@
     <row r="39" ht="25" customHeight="1">
       <c r="B39" s="113" t="inlineStr">
         <is>
-          <t>2/11/2025</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" s="110" t="n"/>
       <c r="D39" s="39" t="inlineStr">
         <is>
-          <t>acvs</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" s="109" t="n"/>
@@ -2553,7 +2577,7 @@
       <c r="G39" s="110" t="n"/>
       <c r="H39" s="39" t="inlineStr">
         <is>
-          <t>acvs</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I39" s="109" t="n"/>
@@ -2561,7 +2585,7 @@
       <c r="K39" s="110" t="n"/>
       <c r="L39" s="39" t="inlineStr">
         <is>
-          <t>abaca</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M39" s="109" t="n"/>
@@ -2571,12 +2595,12 @@
       <c r="Q39" s="110" t="n"/>
       <c r="R39" s="25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S39" s="56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="T39" s="56" t="n"/>
@@ -2593,29 +2617,43 @@
     <row r="40" ht="25" customHeight="1">
       <c r="B40" s="113" t="n"/>
       <c r="C40" s="110" t="n"/>
-      <c r="D40" s="39" t="n"/>
+      <c r="D40" s="39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E40" s="109" t="n"/>
       <c r="F40" s="109" t="n"/>
       <c r="G40" s="110" t="n"/>
-      <c r="H40" s="39" t="n"/>
+      <c r="H40" s="39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="I40" s="109" t="n"/>
       <c r="J40" s="109" t="n"/>
       <c r="K40" s="110" t="n"/>
-      <c r="L40" s="39" t="n"/>
+      <c r="L40" s="39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="M40" s="109" t="n"/>
       <c r="N40" s="109" t="n"/>
       <c r="O40" s="109" t="n"/>
       <c r="P40" s="109" t="n"/>
       <c r="Q40" s="110" t="n"/>
-      <c r="R40" s="25" t="n"/>
-      <c r="S40" s="56">
-        <f>IF(B40="","",1.5)</f>
-        <v/>
-      </c>
-      <c r="T40" s="56">
-        <f>IF(B40="","",R40*S40)</f>
-        <v/>
-      </c>
+      <c r="R40" s="25" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="S40" s="56" t="inlineStr">
+        <is>
+          <t>13221</t>
+        </is>
+      </c>
+      <c r="T40" s="56" t="n"/>
       <c r="U40" s="108" t="n"/>
       <c r="X40" s="2">
         <f>IF(B40&gt;0,L40,"X")</f>
